--- a/Outputs/Negocios atipicos-TD en pesos (cuota)-CI en tasa.xlsx
+++ b/Outputs/Negocios atipicos-TD en pesos (cuota)-CI en tasa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="126">
   <si>
     <t>AFILIACION</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Cuota_deb2</t>
+  </si>
+  <si>
+    <t>Cuota_deb_CI</t>
   </si>
   <si>
     <t>CI_deb</t>
@@ -459,19 +462,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>125609.0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
         <v>5969.0</v>
@@ -479,7 +485,8 @@
       <c r="F2" t="n">
         <v>1.24</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2"/>
+      <c r="H2" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -488,13 +495,13 @@
         <v>305441.0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
         <v>5946.0</v>
@@ -502,7 +509,8 @@
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3"/>
+      <c r="H3" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -511,13 +519,13 @@
         <v>994772.0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
         <v>5533.0</v>
@@ -525,7 +533,8 @@
       <c r="F4" t="n">
         <v>0.0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4"/>
+      <c r="H4" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -534,13 +543,13 @@
         <v>1008385.0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
         <v>5814.0</v>
@@ -548,7 +557,8 @@
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5"/>
+      <c r="H5" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -557,13 +567,13 @@
         <v>1198084.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>5211.0</v>
@@ -571,7 +581,8 @@
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6"/>
+      <c r="H6" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -580,13 +591,13 @@
         <v>1460781.0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" t="n">
         <v>5045.0</v>
@@ -594,7 +605,8 @@
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7"/>
+      <c r="H7" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -603,13 +615,13 @@
         <v>1856327.0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
         <v>5511.0</v>
@@ -617,7 +629,8 @@
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8"/>
+      <c r="H8" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -626,13 +639,13 @@
         <v>2032480.0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
         <v>5532.0</v>
@@ -640,7 +653,8 @@
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9"/>
+      <c r="H9" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -649,13 +663,13 @@
         <v>2060176.0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="n">
         <v>5251.0</v>
@@ -663,7 +677,8 @@
       <c r="F10" t="n">
         <v>0.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10"/>
+      <c r="H10" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -672,13 +687,13 @@
         <v>2237824.0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" t="n">
         <v>5532.0</v>
@@ -686,7 +701,8 @@
       <c r="F11" t="n">
         <v>0.0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11"/>
+      <c r="H11" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -695,13 +711,13 @@
         <v>2248730.0</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
         <v>5912.0</v>
@@ -709,7 +725,8 @@
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12"/>
+      <c r="H12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -718,13 +735,13 @@
         <v>2248748.0</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
         <v>5912.0</v>
@@ -732,7 +749,8 @@
       <c r="F13" t="n">
         <v>0.0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13"/>
+      <c r="H13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -741,13 +759,13 @@
         <v>2248789.0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
         <v>5912.0</v>
@@ -755,7 +773,8 @@
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14"/>
+      <c r="H14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -764,13 +783,13 @@
         <v>2248797.0</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" t="n">
         <v>5912.0</v>
@@ -778,7 +797,8 @@
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15"/>
+      <c r="H15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -787,13 +807,13 @@
         <v>2248805.0</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" t="n">
         <v>5912.0</v>
@@ -801,7 +821,8 @@
       <c r="F16" t="n">
         <v>0.0</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16"/>
+      <c r="H16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -810,13 +831,13 @@
         <v>2248920.0</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" t="n">
         <v>5912.0</v>
@@ -824,7 +845,8 @@
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17"/>
+      <c r="H17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -833,13 +855,13 @@
         <v>2248946.0</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" t="n">
         <v>5912.0</v>
@@ -847,7 +869,8 @@
       <c r="F18" t="n">
         <v>0.0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18"/>
+      <c r="H18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -856,13 +879,13 @@
         <v>2248953.0</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="n">
         <v>5912.0</v>
@@ -870,7 +893,8 @@
       <c r="F19" t="n">
         <v>0.0</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19"/>
+      <c r="H19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -879,13 +903,13 @@
         <v>2248987.0</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
         <v>5912.0</v>
@@ -893,7 +917,8 @@
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20"/>
+      <c r="H20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -902,13 +927,13 @@
         <v>2279180.0</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" t="n">
         <v>5912.0</v>
@@ -916,7 +941,8 @@
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21"/>
+      <c r="H21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -925,13 +951,13 @@
         <v>2279206.0</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" t="n">
         <v>5912.0</v>
@@ -939,7 +965,8 @@
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22"/>
+      <c r="H22" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -948,13 +975,13 @@
         <v>2279214.0</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" t="n">
         <v>5912.0</v>
@@ -962,7 +989,8 @@
       <c r="F23" t="n">
         <v>0.0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23"/>
+      <c r="H23" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -971,13 +999,13 @@
         <v>2279255.0</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" t="n">
         <v>5912.0</v>
@@ -985,7 +1013,8 @@
       <c r="F24" t="n">
         <v>0.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24"/>
+      <c r="H24" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -994,13 +1023,13 @@
         <v>2279297.0</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="n">
         <v>5912.0</v>
@@ -1008,7 +1037,8 @@
       <c r="F25" t="n">
         <v>0.0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25"/>
+      <c r="H25" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1017,13 +1047,13 @@
         <v>2280576.0</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" t="n">
         <v>5912.0</v>
@@ -1031,7 +1061,8 @@
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26"/>
+      <c r="H26" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1040,13 +1071,13 @@
         <v>2287480.0</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" t="n">
         <v>5912.0</v>
@@ -1054,7 +1085,8 @@
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27"/>
+      <c r="H27" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1063,13 +1095,13 @@
         <v>2287498.0</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" t="n">
         <v>5912.0</v>
@@ -1077,7 +1109,8 @@
       <c r="F28" t="n">
         <v>0.0</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28"/>
+      <c r="H28" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1086,13 +1119,13 @@
         <v>2287506.0</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" t="n">
         <v>5912.0</v>
@@ -1100,7 +1133,8 @@
       <c r="F29" t="n">
         <v>0.0</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29"/>
+      <c r="H29" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1109,13 +1143,13 @@
         <v>2287514.0</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" t="n">
         <v>5912.0</v>
@@ -1123,7 +1157,8 @@
       <c r="F30" t="n">
         <v>0.0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30"/>
+      <c r="H30" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1132,13 +1167,13 @@
         <v>2287522.0</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" t="n">
         <v>5912.0</v>
@@ -1146,7 +1181,8 @@
       <c r="F31" t="n">
         <v>0.0</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31"/>
+      <c r="H31" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1155,13 +1191,13 @@
         <v>3197738.0</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E32" t="n">
         <v>5045.0</v>
@@ -1169,7 +1205,8 @@
       <c r="F32" t="n">
         <v>0.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32"/>
+      <c r="H32" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1178,13 +1215,13 @@
         <v>3732286.0</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" t="n">
         <v>5532.0</v>
@@ -1192,7 +1229,8 @@
       <c r="F33" t="n">
         <v>0.0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33"/>
+      <c r="H33" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1201,13 +1239,13 @@
         <v>4000092.0</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" t="n">
         <v>5969.0</v>
@@ -1215,7 +1253,8 @@
       <c r="F34" t="n">
         <v>1.67</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34"/>
+      <c r="H34" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1224,13 +1263,13 @@
         <v>4037289.0</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E35" t="n">
         <v>5532.0</v>
@@ -1238,7 +1277,8 @@
       <c r="F35" t="n">
         <v>0.0</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35"/>
+      <c r="H35" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1247,13 +1287,13 @@
         <v>4041018.0</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" t="n">
         <v>5251.0</v>
@@ -1261,7 +1301,8 @@
       <c r="F36" t="n">
         <v>0.0</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36"/>
+      <c r="H36" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1270,13 +1311,13 @@
         <v>4044570.0</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" t="n">
         <v>5969.0</v>
@@ -1284,7 +1325,8 @@
       <c r="F37" t="n">
         <v>1.24</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37"/>
+      <c r="H37" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1293,13 +1335,13 @@
         <v>4044572.0</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E38" t="n">
         <v>5969.0</v>
@@ -1307,7 +1349,8 @@
       <c r="F38" t="n">
         <v>1.24</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38"/>
+      <c r="H38" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1316,13 +1359,13 @@
         <v>4044576.0</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" t="n">
         <v>5969.0</v>
@@ -1330,7 +1373,8 @@
       <c r="F39" t="n">
         <v>1.24</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39"/>
+      <c r="H39" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1339,13 +1383,13 @@
         <v>4044579.0</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E40" t="n">
         <v>5969.0</v>
@@ -1353,7 +1397,8 @@
       <c r="F40" t="n">
         <v>1.24</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40"/>
+      <c r="H40" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1362,13 +1407,13 @@
         <v>4044583.0</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" t="n">
         <v>5969.0</v>
@@ -1376,7 +1421,8 @@
       <c r="F41" t="n">
         <v>1.24</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41"/>
+      <c r="H41" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1385,13 +1431,13 @@
         <v>4098224.0</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" t="n">
         <v>5169.0</v>
@@ -1399,7 +1445,8 @@
       <c r="F42" t="n">
         <v>0.0</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42"/>
+      <c r="H42" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1408,13 +1455,13 @@
         <v>4116562.0</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E43" t="n">
         <v>5533.0</v>
@@ -1422,7 +1469,8 @@
       <c r="F43" t="n">
         <v>0.0</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43"/>
+      <c r="H43" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1431,13 +1479,13 @@
         <v>4116588.0</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E44" t="n">
         <v>5533.0</v>
@@ -1445,7 +1493,8 @@
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44"/>
+      <c r="H44" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1454,13 +1503,13 @@
         <v>4151370.0</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" t="n">
         <v>5969.0</v>
@@ -1468,7 +1517,8 @@
       <c r="F45" t="n">
         <v>1.0</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45"/>
+      <c r="H45" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1477,13 +1527,13 @@
         <v>4184560.0</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46" t="n">
         <v>5912.0</v>
@@ -1491,7 +1541,8 @@
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46"/>
+      <c r="H46" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1500,13 +1551,13 @@
         <v>4254769.0</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" t="n">
         <v>5198.0</v>
@@ -1514,7 +1565,8 @@
       <c r="F47" t="n">
         <v>0.0</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47"/>
+      <c r="H47" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1523,13 +1575,13 @@
         <v>4314076.0</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" t="n">
         <v>7299.0</v>
@@ -1537,7 +1589,8 @@
       <c r="F48" t="n">
         <v>0.0</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48"/>
+      <c r="H48" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1546,13 +1599,13 @@
         <v>4370813.0</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" t="n">
         <v>5532.0</v>
@@ -1560,7 +1613,8 @@
       <c r="F49" t="n">
         <v>0.0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49"/>
+      <c r="H49" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1569,13 +1623,13 @@
         <v>4454187.0</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E50" t="n">
         <v>5511.0</v>
@@ -1583,7 +1637,8 @@
       <c r="F50" t="n">
         <v>0.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50"/>
+      <c r="H50" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1592,13 +1647,13 @@
         <v>4472874.0</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" t="n">
         <v>4214.0</v>
@@ -1606,7 +1661,8 @@
       <c r="F51" t="n">
         <v>0.0</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51"/>
+      <c r="H51" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1615,13 +1671,13 @@
         <v>4475638.0</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E52" t="n">
         <v>5814.0</v>
@@ -1629,7 +1685,8 @@
       <c r="F52" t="n">
         <v>0.0</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52"/>
+      <c r="H52" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1638,13 +1695,13 @@
         <v>4481461.0</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" t="n">
         <v>5541.0</v>
@@ -1652,7 +1709,8 @@
       <c r="F53" t="n">
         <v>0.0</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53"/>
+      <c r="H53" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1661,13 +1719,13 @@
         <v>4481560.0</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" t="n">
         <v>5541.0</v>
@@ -1675,7 +1733,8 @@
       <c r="F54" t="n">
         <v>0.0</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54"/>
+      <c r="H54" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1684,13 +1743,13 @@
         <v>4752127.0</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E55" t="n">
         <v>5812.0</v>
@@ -1698,7 +1757,8 @@
       <c r="F55" t="n">
         <v>0.0</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55"/>
+      <c r="H55" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1707,13 +1767,13 @@
         <v>4772497.0</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" t="n">
         <v>9311.0</v>
@@ -1721,7 +1781,8 @@
       <c r="F56" t="n">
         <v>0.0</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56"/>
+      <c r="H56" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1730,13 +1791,13 @@
         <v>4854774.0</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57" t="n">
         <v>5812.0</v>
@@ -1744,7 +1805,8 @@
       <c r="F57" t="n">
         <v>2.18</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57"/>
+      <c r="H57" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1753,13 +1815,13 @@
         <v>4860052.0</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E58" t="n">
         <v>5912.0</v>
@@ -1767,7 +1829,8 @@
       <c r="F58" t="n">
         <v>0.0</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58"/>
+      <c r="H58" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1776,13 +1839,13 @@
         <v>4908612.0</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" t="n">
         <v>5211.0</v>
@@ -1790,7 +1853,8 @@
       <c r="F59" t="n">
         <v>0.0</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59"/>
+      <c r="H59" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1799,13 +1863,13 @@
         <v>4910535.0</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60" t="n">
         <v>5211.0</v>
@@ -1813,7 +1877,8 @@
       <c r="F60" t="n">
         <v>0.0</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60"/>
+      <c r="H60" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1822,13 +1887,13 @@
         <v>4910576.0</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61" t="n">
         <v>5039.0</v>
@@ -1836,7 +1901,8 @@
       <c r="F61" t="n">
         <v>0.0</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61"/>
+      <c r="H61" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1845,13 +1911,13 @@
         <v>4962544.0</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E62" t="n">
         <v>5969.0</v>
@@ -1859,7 +1925,8 @@
       <c r="F62" t="n">
         <v>1.24</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62"/>
+      <c r="H62" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1868,13 +1935,13 @@
         <v>4973830.0</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E63" t="n">
         <v>5812.0</v>
@@ -1882,7 +1949,8 @@
       <c r="F63" t="n">
         <v>2.18</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63"/>
+      <c r="H63" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1891,13 +1959,13 @@
         <v>4975009.0</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" t="n">
         <v>8011.0</v>
@@ -1905,7 +1973,8 @@
       <c r="F64" t="n">
         <v>0.0</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64"/>
+      <c r="H64" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1914,13 +1983,13 @@
         <v>4998910.0</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E65" t="n">
         <v>5969.0</v>
@@ -1928,7 +1997,8 @@
       <c r="F65" t="n">
         <v>1.24</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65"/>
+      <c r="H65" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1937,13 +2007,13 @@
         <v>5012513.0</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E66" t="n">
         <v>5532.0</v>
@@ -1951,7 +2021,8 @@
       <c r="F66" t="n">
         <v>0.0</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66"/>
+      <c r="H66" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1960,13 +2031,13 @@
         <v>5081831.0</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E67" t="n">
         <v>1711.0</v>
@@ -1974,7 +2045,8 @@
       <c r="F67" t="n">
         <v>0.0</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67"/>
+      <c r="H67" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1983,13 +2055,13 @@
         <v>5081872.0</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E68" t="n">
         <v>1711.0</v>
@@ -1997,7 +2069,8 @@
       <c r="F68" t="n">
         <v>0.0</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68"/>
+      <c r="H68" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2006,13 +2079,13 @@
         <v>5121991.0</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69" t="n">
         <v>5969.0</v>
@@ -2020,7 +2093,8 @@
       <c r="F69" t="n">
         <v>1.24</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69"/>
+      <c r="H69" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2029,13 +2103,13 @@
         <v>5300348.0</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E70" t="n">
         <v>5732.0</v>
@@ -2043,7 +2117,8 @@
       <c r="F70" t="n">
         <v>0.0</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70"/>
+      <c r="H70" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2052,13 +2127,13 @@
         <v>5329990.0</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" t="n">
         <v>1711.0</v>
@@ -2066,7 +2141,8 @@
       <c r="F71" t="n">
         <v>0.0</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71"/>
+      <c r="H71" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2075,13 +2151,13 @@
         <v>5351887.0</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E72" t="n">
         <v>5812.0</v>
@@ -2089,7 +2165,8 @@
       <c r="F72" t="n">
         <v>1.77</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72"/>
+      <c r="H72" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2098,13 +2175,13 @@
         <v>5386792.0</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73" t="n">
         <v>5532.0</v>
@@ -2112,7 +2189,8 @@
       <c r="F73" t="n">
         <v>0.0</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73"/>
+      <c r="H73" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2121,13 +2199,13 @@
         <v>5412812.0</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" t="n">
         <v>5969.0</v>
@@ -2135,7 +2213,8 @@
       <c r="F74" t="n">
         <v>1.24</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74"/>
+      <c r="H74" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2144,13 +2223,13 @@
         <v>5454400.0</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" t="n">
         <v>5912.0</v>
@@ -2158,7 +2237,8 @@
       <c r="F75" t="n">
         <v>0.0</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75"/>
+      <c r="H75" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2167,13 +2247,13 @@
         <v>5454582.0</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76" t="n">
         <v>5912.0</v>
@@ -2181,7 +2261,8 @@
       <c r="F76" t="n">
         <v>0.0</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76"/>
+      <c r="H76" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2190,13 +2271,13 @@
         <v>5456827.0</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E77" t="n">
         <v>1711.0</v>
@@ -2204,7 +2285,8 @@
       <c r="F77" t="n">
         <v>0.0</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77"/>
+      <c r="H77" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2213,13 +2295,13 @@
         <v>5470141.0</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E78" t="n">
         <v>5912.0</v>
@@ -2227,7 +2309,8 @@
       <c r="F78" t="n">
         <v>0.0</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78"/>
+      <c r="H78" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2236,13 +2319,13 @@
         <v>5470307.0</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" t="n">
         <v>5912.0</v>
@@ -2250,7 +2333,8 @@
       <c r="F79" t="n">
         <v>0.0</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79"/>
+      <c r="H79" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2259,13 +2343,13 @@
         <v>5470356.0</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80" t="n">
         <v>5912.0</v>
@@ -2273,7 +2357,8 @@
       <c r="F80" t="n">
         <v>0.0</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80"/>
+      <c r="H80" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2282,13 +2367,13 @@
         <v>5470455.0</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E81" t="n">
         <v>5912.0</v>
@@ -2296,7 +2381,8 @@
       <c r="F81" t="n">
         <v>0.0</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81"/>
+      <c r="H81" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2305,13 +2391,13 @@
         <v>5470687.0</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E82" t="n">
         <v>5912.0</v>
@@ -2319,7 +2405,8 @@
       <c r="F82" t="n">
         <v>0.0</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82"/>
+      <c r="H82" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2328,13 +2415,13 @@
         <v>5470745.0</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E83" t="n">
         <v>5912.0</v>
@@ -2342,7 +2429,8 @@
       <c r="F83" t="n">
         <v>0.0</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83"/>
+      <c r="H83" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2351,13 +2439,13 @@
         <v>5470810.0</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E84" t="n">
         <v>5912.0</v>
@@ -2365,7 +2453,8 @@
       <c r="F84" t="n">
         <v>0.0</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84"/>
+      <c r="H84" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2374,13 +2463,13 @@
         <v>5470950.0</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E85" t="n">
         <v>5912.0</v>
@@ -2388,7 +2477,8 @@
       <c r="F85" t="n">
         <v>0.0</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85"/>
+      <c r="H85" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2397,13 +2487,13 @@
         <v>5471032.0</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E86" t="n">
         <v>5912.0</v>
@@ -2411,7 +2501,8 @@
       <c r="F86" t="n">
         <v>0.0</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86"/>
+      <c r="H86" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2420,13 +2511,13 @@
         <v>5471867.0</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E87" t="n">
         <v>5251.0</v>
@@ -2434,7 +2525,8 @@
       <c r="F87" t="n">
         <v>0.0</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87"/>
+      <c r="H87" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2443,13 +2535,13 @@
         <v>5471933.0</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E88" t="n">
         <v>5251.0</v>
@@ -2457,7 +2549,8 @@
       <c r="F88" t="n">
         <v>0.0</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88"/>
+      <c r="H88" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2466,13 +2559,13 @@
         <v>5474671.0</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E89" t="n">
         <v>5611.0</v>
@@ -2480,7 +2573,8 @@
       <c r="F89" t="n">
         <v>0.0</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89"/>
+      <c r="H89" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2489,13 +2583,13 @@
         <v>5483888.0</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E90" t="n">
         <v>5532.0</v>
@@ -2503,7 +2597,8 @@
       <c r="F90" t="n">
         <v>0.0</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90"/>
+      <c r="H90" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2512,13 +2607,13 @@
         <v>5483979.0</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E91" t="n">
         <v>1711.0</v>
@@ -2526,7 +2621,8 @@
       <c r="F91" t="n">
         <v>0.0</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91"/>
+      <c r="H91" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2535,13 +2631,13 @@
         <v>5504402.0</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E92" t="n">
         <v>5532.0</v>
@@ -2549,7 +2645,8 @@
       <c r="F92" t="n">
         <v>0.0</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92"/>
+      <c r="H92" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2558,13 +2655,13 @@
         <v>5535661.0</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E93" t="n">
         <v>5251.0</v>
@@ -2572,7 +2669,8 @@
       <c r="F93" t="n">
         <v>0.0</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93"/>
+      <c r="H93" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2581,13 +2679,13 @@
         <v>5542881.0</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" t="n">
         <v>5969.0</v>
@@ -2595,7 +2693,8 @@
       <c r="F94" t="n">
         <v>1.0</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94"/>
+      <c r="H94" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2604,13 +2703,13 @@
         <v>5548680.0</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="n">
         <v>3501.0</v>
@@ -2618,7 +2717,8 @@
       <c r="F95" t="n">
         <v>0.0</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95"/>
+      <c r="H95" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -2627,13 +2727,13 @@
         <v>5574892.0</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E96" t="n">
         <v>5511.0</v>
@@ -2641,7 +2741,8 @@
       <c r="F96" t="n">
         <v>0.0</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96"/>
+      <c r="H96" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2650,13 +2751,13 @@
         <v>5579230.0</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E97" t="n">
         <v>5912.0</v>
@@ -2664,7 +2765,8 @@
       <c r="F97" t="n">
         <v>0.0</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97"/>
+      <c r="H97" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2673,13 +2775,13 @@
         <v>5579248.0</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E98" t="n">
         <v>5912.0</v>
@@ -2687,7 +2789,8 @@
       <c r="F98" t="n">
         <v>0.0</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98"/>
+      <c r="H98" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2696,13 +2799,13 @@
         <v>5579263.0</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E99" t="n">
         <v>5912.0</v>
@@ -2710,7 +2813,8 @@
       <c r="F99" t="n">
         <v>0.0</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99"/>
+      <c r="H99" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2719,13 +2823,13 @@
         <v>5579271.0</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" t="n">
         <v>5912.0</v>
@@ -2733,7 +2837,8 @@
       <c r="F100" t="n">
         <v>0.0</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100"/>
+      <c r="H100" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2742,13 +2847,13 @@
         <v>5579289.0</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E101" t="n">
         <v>5912.0</v>
@@ -2756,7 +2861,8 @@
       <c r="F101" t="n">
         <v>0.0</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101"/>
+      <c r="H101" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2765,13 +2871,13 @@
         <v>5655998.0</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E102" t="n">
         <v>5912.0</v>
@@ -2779,7 +2885,8 @@
       <c r="F102" t="n">
         <v>0.0</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102"/>
+      <c r="H102" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2788,13 +2895,13 @@
         <v>5656004.0</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E103" t="n">
         <v>5912.0</v>
@@ -2802,7 +2909,8 @@
       <c r="F103" t="n">
         <v>0.0</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103"/>
+      <c r="H103" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2811,13 +2919,13 @@
         <v>5673462.0</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E104" t="n">
         <v>1711.0</v>
@@ -2825,7 +2933,8 @@
       <c r="F104" t="n">
         <v>0.0</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104"/>
+      <c r="H104" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2834,13 +2943,13 @@
         <v>5673470.0</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E105" t="n">
         <v>1711.0</v>
@@ -2848,7 +2957,8 @@
       <c r="F105" t="n">
         <v>0.0</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105"/>
+      <c r="H105" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2857,13 +2967,13 @@
         <v>5702964.0</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E106" t="n">
         <v>1711.0</v>
@@ -2871,7 +2981,8 @@
       <c r="F106" t="n">
         <v>0.0</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106"/>
+      <c r="H106" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2880,13 +2991,13 @@
         <v>5726187.0</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E107" t="n">
         <v>5912.0</v>
@@ -2894,7 +3005,8 @@
       <c r="F107" t="n">
         <v>0.0</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107"/>
+      <c r="H107" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2903,13 +3015,13 @@
         <v>5741665.0</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E108" t="n">
         <v>7011.0</v>
@@ -2917,7 +3029,8 @@
       <c r="F108" t="n">
         <v>0.0</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108"/>
+      <c r="H108" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -2926,13 +3039,13 @@
         <v>5762109.0</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E109" t="n">
         <v>5912.0</v>
@@ -2940,7 +3053,8 @@
       <c r="F109" t="n">
         <v>0.0</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109"/>
+      <c r="H109" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2949,13 +3063,13 @@
         <v>5776885.0</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E110" t="n">
         <v>5192.0</v>
@@ -2963,7 +3077,8 @@
       <c r="F110" t="n">
         <v>0.0</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110"/>
+      <c r="H110" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2972,13 +3087,13 @@
         <v>5780887.0</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E111" t="n">
         <v>5251.0</v>
@@ -2986,7 +3101,8 @@
       <c r="F111" t="n">
         <v>0.0</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111"/>
+      <c r="H111" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2995,13 +3111,13 @@
         <v>5780895.0</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E112" t="n">
         <v>5251.0</v>
@@ -3009,7 +3125,8 @@
       <c r="F112" t="n">
         <v>0.0</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112"/>
+      <c r="H112" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3018,13 +3135,13 @@
         <v>5787395.0</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E113" t="n">
         <v>3393.0</v>
@@ -3032,7 +3149,8 @@
       <c r="F113" t="n">
         <v>0.0</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113"/>
+      <c r="H113" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3041,13 +3159,13 @@
         <v>5787403.0</v>
       </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E114" t="n">
         <v>3393.0</v>
@@ -3055,7 +3173,8 @@
       <c r="F114" t="n">
         <v>0.0</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114"/>
+      <c r="H114" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3064,13 +3183,13 @@
         <v>5787411.0</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E115" t="n">
         <v>3393.0</v>
@@ -3078,7 +3197,8 @@
       <c r="F115" t="n">
         <v>0.0</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115"/>
+      <c r="H115" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3087,13 +3207,13 @@
         <v>5787429.0</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E116" t="n">
         <v>3393.0</v>
@@ -3101,7 +3221,8 @@
       <c r="F116" t="n">
         <v>0.0</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116"/>
+      <c r="H116" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3110,13 +3231,13 @@
         <v>5787437.0</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E117" t="n">
         <v>3393.0</v>
@@ -3124,7 +3245,8 @@
       <c r="F117" t="n">
         <v>0.0</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117"/>
+      <c r="H117" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3133,13 +3255,13 @@
         <v>5787460.0</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E118" t="n">
         <v>3393.0</v>
@@ -3147,7 +3269,8 @@
       <c r="F118" t="n">
         <v>0.0</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118"/>
+      <c r="H118" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3156,13 +3279,13 @@
         <v>5787650.0</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E119" t="n">
         <v>3393.0</v>
@@ -3170,7 +3293,8 @@
       <c r="F119" t="n">
         <v>0.0</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119"/>
+      <c r="H119" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3179,13 +3303,13 @@
         <v>5787684.0</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" t="n">
         <v>3393.0</v>
@@ -3193,7 +3317,8 @@
       <c r="F120" t="n">
         <v>0.0</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120"/>
+      <c r="H120" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3202,13 +3327,13 @@
         <v>5787726.0</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E121" t="n">
         <v>3393.0</v>
@@ -3216,7 +3341,8 @@
       <c r="F121" t="n">
         <v>0.0</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121"/>
+      <c r="H121" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3225,13 +3351,13 @@
         <v>5795265.0</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E122" t="n">
         <v>5541.0</v>
@@ -3239,7 +3365,8 @@
       <c r="F122" t="n">
         <v>0.0</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122"/>
+      <c r="H122" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3248,13 +3375,13 @@
         <v>5873609.0</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D123" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E123" t="n">
         <v>5912.0</v>
@@ -3262,7 +3389,8 @@
       <c r="F123" t="n">
         <v>0.0</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123"/>
+      <c r="H123" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3271,13 +3399,13 @@
         <v>5873625.0</v>
       </c>
       <c r="B124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D124" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E124" t="n">
         <v>5912.0</v>
@@ -3285,7 +3413,8 @@
       <c r="F124" t="n">
         <v>0.0</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124"/>
+      <c r="H124" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3294,13 +3423,13 @@
         <v>5873633.0</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D125" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E125" t="n">
         <v>5912.0</v>
@@ -3308,7 +3437,8 @@
       <c r="F125" t="n">
         <v>0.0</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125"/>
+      <c r="H125" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3317,13 +3447,13 @@
         <v>5873641.0</v>
       </c>
       <c r="B126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C126" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D126" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E126" t="n">
         <v>5912.0</v>
@@ -3331,7 +3461,8 @@
       <c r="F126" t="n">
         <v>0.0</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126"/>
+      <c r="H126" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3340,13 +3471,13 @@
         <v>5906763.0</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D127" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E127" t="n">
         <v>8220.0</v>
@@ -3354,7 +3485,8 @@
       <c r="F127" t="n">
         <v>0.0</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127"/>
+      <c r="H127" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3363,13 +3495,13 @@
         <v>5933338.0</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E128" t="n">
         <v>5511.0</v>
@@ -3377,7 +3509,8 @@
       <c r="F128" t="n">
         <v>0.0</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128"/>
+      <c r="H128" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3386,13 +3519,13 @@
         <v>5933353.0</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D129" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E129" t="n">
         <v>5511.0</v>
@@ -3400,7 +3533,8 @@
       <c r="F129" t="n">
         <v>0.0</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129"/>
+      <c r="H129" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3409,13 +3543,13 @@
         <v>5995162.0</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C130" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D130" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E130" t="n">
         <v>5251.0</v>
@@ -3423,7 +3557,8 @@
       <c r="F130" t="n">
         <v>0.0</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130"/>
+      <c r="H130" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3432,13 +3567,13 @@
         <v>5995170.0</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E131" t="n">
         <v>5251.0</v>
@@ -3446,7 +3581,8 @@
       <c r="F131" t="n">
         <v>0.0</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131"/>
+      <c r="H131" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3455,13 +3591,13 @@
         <v>6041594.0</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E132" t="n">
         <v>5532.0</v>
@@ -3469,7 +3605,8 @@
       <c r="F132" t="n">
         <v>0.0</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132"/>
+      <c r="H132" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3478,13 +3615,13 @@
         <v>6080394.0</v>
       </c>
       <c r="B133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D133" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E133" t="n">
         <v>5912.0</v>
@@ -3492,7 +3629,8 @@
       <c r="F133" t="n">
         <v>0.0</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133"/>
+      <c r="H133" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3501,13 +3639,13 @@
         <v>6106041.0</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E134" t="n">
         <v>5611.0</v>
@@ -3515,7 +3653,8 @@
       <c r="F134" t="n">
         <v>0.0</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134"/>
+      <c r="H134" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3524,13 +3663,13 @@
         <v>6112916.0</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D135" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E135" t="n">
         <v>5983.0</v>
@@ -3538,7 +3677,8 @@
       <c r="F135" t="n">
         <v>0.0</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135"/>
+      <c r="H135" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3547,13 +3687,13 @@
         <v>6215602.0</v>
       </c>
       <c r="B136" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C136" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D136" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E136" t="n">
         <v>5169.0</v>
@@ -3561,7 +3701,8 @@
       <c r="F136" t="n">
         <v>0.0</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136"/>
+      <c r="H136" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3570,13 +3711,13 @@
         <v>6251896.0</v>
       </c>
       <c r="B137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E137" t="n">
         <v>3393.0</v>
@@ -3584,7 +3725,8 @@
       <c r="F137" t="n">
         <v>0.0</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137"/>
+      <c r="H137" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3593,13 +3735,13 @@
         <v>6255889.0</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E138" t="n">
         <v>3393.0</v>
@@ -3607,7 +3749,8 @@
       <c r="F138" t="n">
         <v>0.0</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138"/>
+      <c r="H138" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3616,13 +3759,13 @@
         <v>6306039.0</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D139" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E139" t="n">
         <v>4812.0</v>
@@ -3630,7 +3773,8 @@
       <c r="F139" t="n">
         <v>0.0</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139"/>
+      <c r="H139" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3639,13 +3783,13 @@
         <v>6460851.0</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C140" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E140" t="n">
         <v>763.0</v>
@@ -3653,7 +3797,8 @@
       <c r="F140" t="n">
         <v>0.0</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140"/>
+      <c r="H140" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3662,13 +3807,13 @@
         <v>6495279.0</v>
       </c>
       <c r="B141" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C141" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D141" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E141" t="n">
         <v>5169.0</v>
@@ -3676,7 +3821,8 @@
       <c r="F141" t="n">
         <v>0.0</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141"/>
+      <c r="H141" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3685,13 +3831,13 @@
         <v>6502660.0</v>
       </c>
       <c r="B142" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E142" t="n">
         <v>5046.0</v>
@@ -3699,7 +3845,8 @@
       <c r="F142" t="n">
         <v>0.0</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142"/>
+      <c r="H142" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3708,13 +3855,13 @@
         <v>6508808.0</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C143" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D143" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E143" t="n">
         <v>5812.0</v>
@@ -3722,7 +3869,8 @@
       <c r="F143" t="n">
         <v>0.0</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143"/>
+      <c r="H143" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3731,13 +3879,13 @@
         <v>6597496.0</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D144" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E144" t="n">
         <v>5912.0</v>
@@ -3745,7 +3893,8 @@
       <c r="F144" t="n">
         <v>1.5</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144"/>
+      <c r="H144" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3754,13 +3903,13 @@
         <v>6612733.0</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E145" t="n">
         <v>5532.0</v>
@@ -3768,7 +3917,8 @@
       <c r="F145" t="n">
         <v>0.0</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145"/>
+      <c r="H145" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3777,13 +3927,13 @@
         <v>6618847.0</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D146" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E146" t="n">
         <v>3393.0</v>
@@ -3791,7 +3941,8 @@
       <c r="F146" t="n">
         <v>0.0</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146"/>
+      <c r="H146" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3800,13 +3951,13 @@
         <v>6675144.0</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C147" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E147" t="n">
         <v>5943.0</v>
@@ -3814,7 +3965,8 @@
       <c r="F147" t="n">
         <v>0.0</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147"/>
+      <c r="H147" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3823,13 +3975,13 @@
         <v>6775076.0</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E148" t="n">
         <v>4215.0</v>
@@ -3837,7 +3989,8 @@
       <c r="F148" t="n">
         <v>0.0</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148"/>
+      <c r="H148" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3846,13 +3999,13 @@
         <v>6789440.0</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C149" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D149" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E149" t="n">
         <v>5947.0</v>
@@ -3860,7 +4013,8 @@
       <c r="F149" t="n">
         <v>0.0</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149"/>
+      <c r="H149" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3869,13 +4023,13 @@
         <v>7091379.0</v>
       </c>
       <c r="B150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C150" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D150" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E150" t="n">
         <v>5912.0</v>
@@ -3883,7 +4037,8 @@
       <c r="F150" t="n">
         <v>0.0</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150"/>
+      <c r="H150" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3892,13 +4047,13 @@
         <v>7246655.0</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D151" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E151" t="n">
         <v>5192.0</v>
@@ -3906,7 +4061,8 @@
       <c r="F151" t="n">
         <v>0.0</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151"/>
+      <c r="H151" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3915,13 +4071,13 @@
         <v>7251522.0</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D152" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E152" t="n">
         <v>5532.0</v>
@@ -3929,7 +4085,8 @@
       <c r="F152" t="n">
         <v>0.0</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152"/>
+      <c r="H152" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -3938,13 +4095,13 @@
         <v>7256527.0</v>
       </c>
       <c r="B153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C153" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E153" t="n">
         <v>5912.0</v>
@@ -3952,7 +4109,8 @@
       <c r="F153" t="n">
         <v>0.0</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153"/>
+      <c r="H153" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3961,13 +4119,13 @@
         <v>7290174.0</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D154" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E154" t="n">
         <v>5912.0</v>
@@ -3975,7 +4133,8 @@
       <c r="F154" t="n">
         <v>0.0</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154"/>
+      <c r="H154" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3984,13 +4143,13 @@
         <v>7328086.0</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D155" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E155" t="n">
         <v>5532.0</v>
@@ -3998,7 +4157,8 @@
       <c r="F155" t="n">
         <v>0.0</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155"/>
+      <c r="H155" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -4007,13 +4167,13 @@
         <v>7343348.0</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C156" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D156" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E156" t="n">
         <v>5812.0</v>
@@ -4021,7 +4181,8 @@
       <c r="F156" t="n">
         <v>0.0</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156"/>
+      <c r="H156" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -4030,13 +4191,13 @@
         <v>7458000.0</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D157" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E157" t="n">
         <v>5532.0</v>
@@ -4044,7 +4205,8 @@
       <c r="F157" t="n">
         <v>0.0</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157"/>
+      <c r="H157" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -4053,13 +4215,13 @@
         <v>7541150.0</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D158" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E158" t="n">
         <v>5532.0</v>
@@ -4067,7 +4229,8 @@
       <c r="F158" t="n">
         <v>0.0</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158"/>
+      <c r="H158" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -4076,13 +4239,13 @@
         <v>8773822.0</v>
       </c>
       <c r="B159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C159" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D159" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E159" t="n">
         <v>5912.0</v>
@@ -4090,7 +4253,8 @@
       <c r="F159" t="n">
         <v>0.0</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159"/>
+      <c r="H159" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -4099,13 +4263,13 @@
         <v>9037227.0</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E160" t="n">
         <v>8220.0</v>
@@ -4113,7 +4277,8 @@
       <c r="F160" t="n">
         <v>0.0</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160"/>
+      <c r="H160" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4122,13 +4287,13 @@
         <v>9608423.0</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D161" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E161" t="n">
         <v>5211.0</v>
@@ -4136,7 +4301,8 @@
       <c r="F161" t="n">
         <v>0.0</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161"/>
+      <c r="H161" t="n">
         <v>1.15</v>
       </c>
     </row>
